--- a/public/FileStudent/Lop.xlsx
+++ b/public/FileStudent/Lop.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NCKh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Tai lieu\NCKH_K60\File_Code\NCKH\Backend_NCKH\public\FileStudent\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15350" windowHeight="4580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -425,19 +425,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -451,7 +451,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -465,7 +465,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -479,7 +479,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -493,7 +493,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -507,7 +507,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -521,7 +521,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -535,7 +535,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -549,7 +549,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -563,7 +563,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -577,7 +577,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -591,7 +591,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -605,7 +605,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -633,7 +633,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -647,7 +647,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -661,7 +661,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
         <v>19</v>
       </c>
@@ -672,7 +672,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -686,7 +686,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
